--- a/biology/Botanique/Heliotropium_amplexicaule/Heliotropium_amplexicaule.xlsx
+++ b/biology/Botanique/Heliotropium_amplexicaule/Heliotropium_amplexicaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliotropium amplexicaule, de nom commun héliotrope bleu, herbe bleue, verveine marron[2], est une espèce de plante de la famille des Boraginaceae et du genre Heliotropium.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliotropium amplexicaule, de nom commun héliotrope bleu, herbe bleue, verveine marron, est une espèce de plante de la famille des Boraginaceae et du genre Heliotropium.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliotropium amplexicaule est une plante herbacée vivace touffue qui pousse des tiges ramifiées et velues jusqu'à environ 50 cm. Elle a un feuillage abondant de feuilles vertes oblongues au bord ondulé de 4 à 9 cm de long. Les inflorescences en épi terminal incurvé contiennent plusieurs minuscules fleurs violet vif avec des lobes arrondis et des gorges tubulaires jaunes. Les fruits sont des nucules appariées à surface rugueuse.
 </t>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliotropium amplexicaule est originaire d'Amérique du Sud, particulièrement de l'Argentine. Elle est une espèce introduite dans tous les continents.
-Elle est considérée comme une mauvaise herbe nuisible en Australie[3].
+Elle est considérée comme une mauvaise herbe nuisible en Australie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est une plante hôte de la chenille de Crombrugghia distans[4], du Petit monarque, Tirumala hamata et Utetheisa elata.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est une plante hôte de la chenille de Crombrugghia distans, du Petit monarque, Tirumala hamata et Utetheisa elata.
 La lutte biologique est à l'étude pour réduire la propagation de cette plante en Nouvelle-Galles du Sud et dans les régions avoisinantes en Australie. Les expériences ont montré un intérêt particulier pour Deuterocampta quadrijuga et les altises.
 </t>
         </is>
@@ -606,9 +624,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliotropium amplexicaule contient des alcaloïdes pyrrolizidiniques[5]. Elle est toxique pour le bétail[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliotropium amplexicaule contient des alcaloïdes pyrrolizidiniques. Elle est toxique pour le bétail.
 </t>
         </is>
       </c>
